--- a/new_data/GSPC/GSPC_2011/GSPC_2011.xlsx
+++ b/new_data/GSPC/GSPC_2011/GSPC_2011.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\GSPC\GSPC_2011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623C3A14-E918-400A-B652-375852BC8B9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AE273C-9045-4863-BF2E-671D4E7F526D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t>Volume</t>
   </si>
@@ -139,9 +139,6 @@
   <si>
     <t>Ma_20</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
   </si>
   <si>
     <t>BIAS_12_L1</t>
@@ -196,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -281,33 +278,9 @@
         <color theme="4"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color theme="4"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -319,7 +292,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyFont="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -337,9 +310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,13 +322,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,7 +611,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G3" sqref="G3:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -657,9 +621,9 @@
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="9"/>
-    <col min="8" max="8" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="9"/>
+    <col min="7" max="7" width="9.140625" style="8"/>
+    <col min="8" max="8" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -680,20 +644,19 @@
         <v>21</v>
       </c>
       <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="10"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="12"/>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>2</v>
       </c>
     </row>
@@ -701,18 +664,18 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="14" t="s">
-        <v>29</v>
+      <c r="G3" s="8">
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>3</v>
       </c>
     </row>
@@ -720,14 +683,13 @@
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="14"/>
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>4</v>
       </c>
     </row>
@@ -735,14 +697,13 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="14"/>
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>5</v>
       </c>
       <c r="K5" t="s">
@@ -753,14 +714,13 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="14"/>
       <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>6</v>
       </c>
     </row>
@@ -768,13 +728,12 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="8"/>
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>7</v>
       </c>
     </row>
@@ -782,21 +741,21 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="14" t="s">
-        <v>29</v>
+      <c r="G8" s="8">
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>8</v>
       </c>
     </row>
@@ -804,19 +763,19 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="14" t="s">
-        <v>29</v>
+      <c r="G9" s="8">
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>9</v>
       </c>
     </row>
@@ -824,18 +783,18 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="14" t="s">
-        <v>29</v>
+      <c r="G10" s="8">
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>10</v>
       </c>
     </row>
@@ -843,14 +802,13 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="14"/>
       <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>11</v>
       </c>
     </row>
@@ -858,13 +816,12 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="14"/>
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>12</v>
       </c>
     </row>
@@ -872,13 +829,12 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="10"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="14"/>
       <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>13</v>
       </c>
     </row>
@@ -886,20 +842,20 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="14" t="s">
-        <v>31</v>
+      <c r="G14" s="8">
+        <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>14</v>
       </c>
     </row>
@@ -907,18 +863,18 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="11"/>
+      <c r="D15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="10"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="14" t="s">
-        <v>31</v>
+      <c r="G15" s="8">
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>15</v>
       </c>
     </row>
@@ -926,20 +882,20 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="14" t="s">
-        <v>31</v>
+      <c r="G16" s="8">
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>16</v>
       </c>
     </row>
@@ -947,13 +903,12 @@
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="10"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="8"/>
       <c r="H17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>17</v>
       </c>
     </row>
@@ -961,13 +916,12 @@
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="10"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="8"/>
       <c r="H18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>18</v>
       </c>
     </row>
@@ -976,11 +930,10 @@
         <v>12</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
       <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>19</v>
       </c>
     </row>
@@ -989,11 +942,10 @@
         <v>13</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="8"/>
       <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>20</v>
       </c>
     </row>
@@ -1001,13 +953,12 @@
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="10"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
       <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>21</v>
       </c>
     </row>
@@ -1016,11 +967,10 @@
         <v>15</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
       <c r="H22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>22</v>
       </c>
     </row>
@@ -1028,21 +978,21 @@
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>29</v>
+      <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>23</v>
       </c>
     </row>
@@ -1050,37 +1000,37 @@
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>29</v>
+      <c r="B24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
